--- a/Daten.xlsx
+++ b/Daten.xlsx
@@ -534,9 +534,6 @@
     <t>Duit</t>
   </si>
   <si>
-    <t>Greifensteinerstr. 23/5, 3423 St Andrae Woerdern</t>
-  </si>
-  <si>
     <t>0664/8648308</t>
   </si>
   <si>
@@ -549,9 +546,6 @@
     <t>Hainzl</t>
   </si>
   <si>
-    <t>Obere Waldgasse 32, 3423 Wördern</t>
-  </si>
-  <si>
     <t>0680/2002650</t>
   </si>
   <si>
@@ -669,15 +663,9 @@
     <t>Betrag</t>
   </si>
   <si>
-    <t>Watzmanss 7, 3922 Gross Schönau</t>
-  </si>
-  <si>
     <t>Rupert</t>
   </si>
   <si>
-    <t>Mayergutstraße 72</t>
-  </si>
-  <si>
     <t>0699/2626883</t>
   </si>
   <si>
@@ -696,9 +684,6 @@
     <t>helga.eder@gmx.at</t>
   </si>
   <si>
-    <t>3423 St. Andrä-Wördern, Bahngasse 9/4</t>
-  </si>
-  <si>
     <t>0650/ 5235964</t>
   </si>
   <si>
@@ -730,6 +715,21 @@
   </si>
   <si>
     <t>Südwest Korso 11a, 12161 Berlin</t>
+  </si>
+  <si>
+    <t>Watzmanns 7, 3922 Gross Schönau</t>
+  </si>
+  <si>
+    <t>Bahngasse 9/4, 3423 St. Andrä-Wördern</t>
+  </si>
+  <si>
+    <t>Greifensteinerstr. 23/5, 3423 St. Andrä-Wördern</t>
+  </si>
+  <si>
+    <t>Obere Waldgasse 32, 3423 St. Andrä-Wördern</t>
+  </si>
+  <si>
+    <t>Mayrgutstraße 72, 4451 Garsten</t>
   </si>
 </sst>
 </file>
@@ -1334,23 +1334,23 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="47.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="7.26953125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="47.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.453125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1367,19 +1367,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>9</v>
@@ -1405,7 +1405,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>14</v>
@@ -1431,7 +1431,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>43245</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>43311</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>44</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>43263</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>50</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>55</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>43311</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>61</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>67</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>43277</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>73</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>43270</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>79</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>85</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>43284</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>90</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>96</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>43280</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>101</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>43409</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>107</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>109</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>110</v>
@@ -1885,53 +1885,53 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="G21" s="10">
         <v>25000</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I21" s="8">
         <v>43210</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>113</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G22" s="10">
         <v>5000</v>
@@ -1940,140 +1940,140 @@
         <v>43367</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="G23" s="10">
         <v>50000</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I23" s="8">
         <v>43280</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="G24" s="10">
         <v>5000</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I24" s="8">
         <v>43206</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>121</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="G25" s="10">
         <v>30000</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I25" s="8">
         <v>43283</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>122</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G26" s="10">
         <v>50000</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I26" s="8">
         <v>43278</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="G27" s="10">
         <v>20000</v>
@@ -2082,36 +2082,36 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G28" s="10">
         <v>20000</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I28" s="8">
         <v>43280</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>125</v>
       </c>
@@ -2134,59 +2134,59 @@
         <v>20000</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I29" s="8">
         <v>43259</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>126</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="G30" s="10">
         <v>5000</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I30" s="8">
         <v>43330</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>128</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G31" s="10">
         <v>30000</v>
@@ -2195,7 +2195,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>129</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>43390</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>135</v>
       </c>
@@ -2247,24 +2247,24 @@
         <v>43395</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G34" s="10">
         <v>15000</v>
@@ -2273,7 +2273,7 @@
         <v>43395</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>142</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>43409</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>148</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>43389</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>154</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>43304</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>159</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>43382</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>165</v>
       </c>
@@ -2388,13 +2388,13 @@
         <v>167</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G39" s="10">
         <v>75000</v>
@@ -2403,7 +2403,7 @@
         <v>43406</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>168</v>
       </c>
@@ -2414,13 +2414,13 @@
         <v>170</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="F40" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G40" s="10">
         <v>5000</v>
@@ -2432,24 +2432,24 @@
         <v>43391</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="G41" s="10">
         <v>30000</v>
@@ -2458,24 +2458,24 @@
         <v>43389</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="D42" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G42" s="10">
         <v>6000</v>
@@ -2484,24 +2484,24 @@
         <v>43384</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G43" s="10">
         <v>50000</v>
@@ -2510,9 +2510,9 @@
         <v>43418</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>115</v>
